--- a/技能设定.xlsx
+++ b/技能设定.xlsx
@@ -680,7 +680,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
